--- a/Docs/Time Tracking.xlsx
+++ b/Docs/Time Tracking.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\GitHub\CCScapstone\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="510" yWindow="600" windowWidth="14055" windowHeight="4050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Team:</t>
   </si>
   <si>
-    <t>Belknap</t>
-  </si>
-  <si>
     <t>Members</t>
   </si>
   <si>
@@ -34,9 +36,6 @@
     <t>Yadira</t>
   </si>
   <si>
-    <t>Amanda</t>
-  </si>
-  <si>
     <t>Hours</t>
   </si>
   <si>
@@ -71,13 +70,16 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>CreativeCyberSolutions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -86,6 +88,19 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,9 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -120,6 +137,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -168,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,7 +223,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -423,60 +443,51 @@
     <col min="1" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -492,207 +503,170 @@
         <f>D4</f>
         <v>10</v>
       </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
       <c r="G4">
         <f t="shared" ref="G4:G13" si="0">F4</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I13" si="1">H4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C13" si="2">B5+C4</f>
+        <f t="shared" ref="C5:C13" si="1">B5+C4</f>
         <v>15</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E13" si="3">D5+E4</f>
+        <f t="shared" ref="E5:E13" si="2">D5+E4</f>
         <v>10</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5">
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6">
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7">
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8">
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9">
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10">
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11">
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12">
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1679,6 +1653,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Time Tracking.xlsx
+++ b/Docs/Time Tracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\GitHub\CCScapstone\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\GitHub\CCS-Capstone\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -523,9 +523,12 @@
         <f t="shared" ref="E5:E13" si="2">D5+E4</f>
         <v>10</v>
       </c>
+      <c r="F5">
+        <v>5.5</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Docs/Time Tracking.xlsx
+++ b/Docs/Time Tracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\GitHub\CCS-Capstone\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\GitHub\CCScapstone\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -524,11 +524,11 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Docs/Time Tracking.xlsx
+++ b/Docs/Time Tracking.xlsx
@@ -524,11 +524,11 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
